--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2457401_cognizant_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2457219\IdeaProjects\ZigWheels-Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{9E910663-074C-4CFF-9F7B-B48D6D67B1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3DA1BA9-DB9B-4B50-99AE-D5B84D9F8BAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C7DA86-0C3A-43FB-92F5-9B8D70FCD26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3DD94481-D29D-4275-B7BE-7650AC1C5D90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{3DD94481-D29D-4275-B7BE-7650AC1C5D90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,18 +38,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="31">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>
   <si>
     <t>Input</t>
+  </si>
+  <si>
+    <t>Bike Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Expected Launch</t>
+  </si>
+  <si>
+    <t>Popular Car Models</t>
+  </si>
+  <si>
+    <t>Maruti 800</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Hyundai I10</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing</t>
+  </si>
+  <si>
+    <t>Honda City</t>
+  </si>
+  <si>
+    <t>Toyota Innova</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500</t>
+  </si>
+  <si>
+    <t>Yamaha EC-06</t>
+  </si>
+  <si>
+    <t>Rs. 1.60 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jan 2026</t>
+  </si>
+  <si>
+    <t>Yamaha AEROX-E</t>
+  </si>
+  <si>
+    <t>Rs. 2.90 Lakh</t>
+  </si>
+  <si>
+    <t>2025 Yamaha MT-03</t>
+  </si>
+  <si>
+    <t>Rs. 3.60 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jun 2026</t>
+  </si>
+  <si>
+    <t>Yamaha NMax 155</t>
+  </si>
+  <si>
+    <t>Rs. 1.40 Lakh</t>
+  </si>
+  <si>
+    <t>2025 Yamaha R3</t>
+  </si>
+  <si>
+    <t>Rs. 3.70 Lakh</t>
+  </si>
+  <si>
+    <t>Yamaha WR155 R</t>
+  </si>
+  <si>
+    <t>Rs. 1.70 Lakh</t>
+  </si>
+  <si>
+    <t>Yamaha RX 100</t>
+  </si>
+  <si>
+    <t>Rs. 1.00 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Dec 2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,11 +182,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -435,13 +528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B7F973-6366-44B5-9B61-7473C72FDC55}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -460,4 +553,177 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08465B5-2025-4D19-9577-739F89D91275}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="A2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="22.08984375"/>
+    <col min="2" max="2" customWidth="true" width="15.90625"/>
+    <col min="3" max="3" customWidth="true" width="25.81640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFC1F47-849A-45B2-980B-195303A863AC}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="20.08984375"/>
+    <col min="2" max="2" customWidth="true" width="20.36328125"/>
+    <col min="3" max="3" customWidth="true" width="22.453125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="31">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="32">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Expected Launch : Dec 2026</t>
+  </si>
+  <si>
+    <t>Expected Launch : Mar 2026</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +603,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="35">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>Expected Launch : Dec 2026</t>
+  </si>
+  <si>
+    <t>Expected Launch : Mar 2026</t>
+  </si>
+  <si>
+    <t>Brixton Crossfire 500 Storr</t>
+  </si>
+  <si>
+    <t>Rs. 5.50 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Feb 2026</t>
   </si>
 </sst>
 </file>
@@ -589,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="35">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="37">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Expected Launch : Feb 2026</t>
+  </si>
+  <si>
+    <t>2026 Yamaha MT-03</t>
+  </si>
+  <si>
+    <t>2026 Yamaha R3</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>20</v>
@@ -639,7 +645,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>25</v>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="88">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>
@@ -149,6 +149,159 @@
   </si>
   <si>
     <t>2026 Yamaha R3</t>
+  </si>
+  <si>
+    <t>2026 Hero Mavrick 440</t>
+  </si>
+  <si>
+    <t>Rs. 2.30 Lakh</t>
+  </si>
+  <si>
+    <t>Royal Enfield Bullet 650</t>
+  </si>
+  <si>
+    <t>Rs. 3.40 Lakh</t>
+  </si>
+  <si>
+    <t>Triumph Speed 350</t>
+  </si>
+  <si>
+    <t>Rs. 1.90 Lakh</t>
+  </si>
+  <si>
+    <t>FB Mondial Piega 452</t>
+  </si>
+  <si>
+    <t>Rs. 5.00 Lakh</t>
+  </si>
+  <si>
+    <t>2026 Bajaj Pulsar</t>
+  </si>
+  <si>
+    <t>Rs. 95,000</t>
+  </si>
+  <si>
+    <t>BMW F 450 GS</t>
+  </si>
+  <si>
+    <t>Rs. 4.50 Lakh</t>
+  </si>
+  <si>
+    <t>Hero Karizma XMR 250</t>
+  </si>
+  <si>
+    <t>Rs. 2.00 Lakh</t>
+  </si>
+  <si>
+    <t>2026 Husqvarna Svartpilen 401</t>
+  </si>
+  <si>
+    <t>Rs. 2.99 Lakh</t>
+  </si>
+  <si>
+    <t>2026 Husqvarna Vitpilen 250</t>
+  </si>
+  <si>
+    <t>Royal Enfield Flying Flea C6</t>
+  </si>
+  <si>
+    <t>Kawasaki W230</t>
+  </si>
+  <si>
+    <t>Rs. 1.50 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Apr 2026</t>
+  </si>
+  <si>
+    <t>2026 Yezdi Scrambler</t>
+  </si>
+  <si>
+    <t>Rs. 2.15 Lakh</t>
+  </si>
+  <si>
+    <t>BSA Scrambler</t>
+  </si>
+  <si>
+    <t>Rs. 3.45 Lakh</t>
+  </si>
+  <si>
+    <t>BSA Electric Bike</t>
+  </si>
+  <si>
+    <t>Rs. 2.50 Lakh</t>
+  </si>
+  <si>
+    <t>Triumph Bonneville 350</t>
+  </si>
+  <si>
+    <t>Rs. 1.85 Lakh</t>
+  </si>
+  <si>
+    <t>2026 KTM RC 390</t>
+  </si>
+  <si>
+    <t>Rs. 3.50 Lakh</t>
+  </si>
+  <si>
+    <t>Bajaj Platina 125</t>
+  </si>
+  <si>
+    <t>Rs. 80,000</t>
+  </si>
+  <si>
+    <t>Bajaj Pulsar NS150</t>
+  </si>
+  <si>
+    <t>Rs. 1.22 Lakh</t>
+  </si>
+  <si>
+    <t>BSA Bantam 350</t>
+  </si>
+  <si>
+    <t>Rs. 2.20 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jul 2026</t>
+  </si>
+  <si>
+    <t>KTM 350 Duke</t>
+  </si>
+  <si>
+    <t>Rs. 2.60 Lakh</t>
+  </si>
+  <si>
+    <t>Ola Cruiser</t>
+  </si>
+  <si>
+    <t>Rs. 2.70 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Aug 2026</t>
+  </si>
+  <si>
+    <t>Royal Enfield 250</t>
+  </si>
+  <si>
+    <t>Rs. 1.30 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Sep 2026</t>
+  </si>
+  <si>
+    <t>Royal Enfield Interceptor 750</t>
+  </si>
+  <si>
+    <t>Rs. 3.80 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Nov 2026</t>
+  </si>
+  <si>
+    <t>KTM Duke 490</t>
+  </si>
+  <si>
+    <t>Rs. 4.00 Lakh</t>
   </si>
 </sst>
 </file>
@@ -575,7 +728,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08465B5-2025-4D19-9577-739F89D91275}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="A2:C8"/>
@@ -601,10 +754,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>31</v>
@@ -612,21 +765,21 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>21</v>
@@ -634,10 +787,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>21</v>
@@ -645,10 +798,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>21</v>
@@ -656,24 +809,255 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="88">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="88">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="88">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2457219\IdeaProjects\ZigWheels-Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C7DA86-0C3A-43FB-92F5-9B8D70FCD26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA104CBA-5A29-47E8-881A-227BC5412CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{3DD94481-D29D-4275-B7BE-7650AC1C5D90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{3DD94481-D29D-4275-B7BE-7650AC1C5D90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>
@@ -58,6 +58,51 @@
     <t>Popular Car Models</t>
   </si>
   <si>
+    <t>Yamaha AEROX-E</t>
+  </si>
+  <si>
+    <t>Rs. 2.90 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Mar 2026</t>
+  </si>
+  <si>
+    <t>2026 Yamaha MT-03</t>
+  </si>
+  <si>
+    <t>Rs. 3.60 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jun 2026</t>
+  </si>
+  <si>
+    <t>Yamaha NMax 155</t>
+  </si>
+  <si>
+    <t>Rs. 1.40 Lakh</t>
+  </si>
+  <si>
+    <t>2026 Yamaha R3</t>
+  </si>
+  <si>
+    <t>Rs. 3.70 Lakh</t>
+  </si>
+  <si>
+    <t>Yamaha WR155 R</t>
+  </si>
+  <si>
+    <t>Rs. 1.70 Lakh</t>
+  </si>
+  <si>
+    <t>Yamaha RX 100</t>
+  </si>
+  <si>
+    <t>Rs. 1.00 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Dec 2026</t>
+  </si>
+  <si>
     <t>Maruti 800</t>
   </si>
   <si>
@@ -80,228 +125,6 @@
   </si>
   <si>
     <t>Mahindra XUV500</t>
-  </si>
-  <si>
-    <t>Yamaha EC-06</t>
-  </si>
-  <si>
-    <t>Rs. 1.60 Lakh</t>
-  </si>
-  <si>
-    <t>Expected Launch : Jan 2026</t>
-  </si>
-  <si>
-    <t>Yamaha AEROX-E</t>
-  </si>
-  <si>
-    <t>Rs. 2.90 Lakh</t>
-  </si>
-  <si>
-    <t>2025 Yamaha MT-03</t>
-  </si>
-  <si>
-    <t>Rs. 3.60 Lakh</t>
-  </si>
-  <si>
-    <t>Expected Launch : Jun 2026</t>
-  </si>
-  <si>
-    <t>Yamaha NMax 155</t>
-  </si>
-  <si>
-    <t>Rs. 1.40 Lakh</t>
-  </si>
-  <si>
-    <t>2025 Yamaha R3</t>
-  </si>
-  <si>
-    <t>Rs. 3.70 Lakh</t>
-  </si>
-  <si>
-    <t>Yamaha WR155 R</t>
-  </si>
-  <si>
-    <t>Rs. 1.70 Lakh</t>
-  </si>
-  <si>
-    <t>Yamaha RX 100</t>
-  </si>
-  <si>
-    <t>Rs. 1.00 Lakh</t>
-  </si>
-  <si>
-    <t>Expected Launch : Dec 2026</t>
-  </si>
-  <si>
-    <t>Expected Launch : Mar 2026</t>
-  </si>
-  <si>
-    <t>Brixton Crossfire 500 Storr</t>
-  </si>
-  <si>
-    <t>Rs. 5.50 Lakh</t>
-  </si>
-  <si>
-    <t>Expected Launch : Feb 2026</t>
-  </si>
-  <si>
-    <t>2026 Yamaha MT-03</t>
-  </si>
-  <si>
-    <t>2026 Yamaha R3</t>
-  </si>
-  <si>
-    <t>2026 Hero Mavrick 440</t>
-  </si>
-  <si>
-    <t>Rs. 2.30 Lakh</t>
-  </si>
-  <si>
-    <t>Royal Enfield Bullet 650</t>
-  </si>
-  <si>
-    <t>Rs. 3.40 Lakh</t>
-  </si>
-  <si>
-    <t>Triumph Speed 350</t>
-  </si>
-  <si>
-    <t>Rs. 1.90 Lakh</t>
-  </si>
-  <si>
-    <t>FB Mondial Piega 452</t>
-  </si>
-  <si>
-    <t>Rs. 5.00 Lakh</t>
-  </si>
-  <si>
-    <t>2026 Bajaj Pulsar</t>
-  </si>
-  <si>
-    <t>Rs. 95,000</t>
-  </si>
-  <si>
-    <t>BMW F 450 GS</t>
-  </si>
-  <si>
-    <t>Rs. 4.50 Lakh</t>
-  </si>
-  <si>
-    <t>Hero Karizma XMR 250</t>
-  </si>
-  <si>
-    <t>Rs. 2.00 Lakh</t>
-  </si>
-  <si>
-    <t>2026 Husqvarna Svartpilen 401</t>
-  </si>
-  <si>
-    <t>Rs. 2.99 Lakh</t>
-  </si>
-  <si>
-    <t>2026 Husqvarna Vitpilen 250</t>
-  </si>
-  <si>
-    <t>Royal Enfield Flying Flea C6</t>
-  </si>
-  <si>
-    <t>Kawasaki W230</t>
-  </si>
-  <si>
-    <t>Rs. 1.50 Lakh</t>
-  </si>
-  <si>
-    <t>Expected Launch : Apr 2026</t>
-  </si>
-  <si>
-    <t>2026 Yezdi Scrambler</t>
-  </si>
-  <si>
-    <t>Rs. 2.15 Lakh</t>
-  </si>
-  <si>
-    <t>BSA Scrambler</t>
-  </si>
-  <si>
-    <t>Rs. 3.45 Lakh</t>
-  </si>
-  <si>
-    <t>BSA Electric Bike</t>
-  </si>
-  <si>
-    <t>Rs. 2.50 Lakh</t>
-  </si>
-  <si>
-    <t>Triumph Bonneville 350</t>
-  </si>
-  <si>
-    <t>Rs. 1.85 Lakh</t>
-  </si>
-  <si>
-    <t>2026 KTM RC 390</t>
-  </si>
-  <si>
-    <t>Rs. 3.50 Lakh</t>
-  </si>
-  <si>
-    <t>Bajaj Platina 125</t>
-  </si>
-  <si>
-    <t>Rs. 80,000</t>
-  </si>
-  <si>
-    <t>Bajaj Pulsar NS150</t>
-  </si>
-  <si>
-    <t>Rs. 1.22 Lakh</t>
-  </si>
-  <si>
-    <t>BSA Bantam 350</t>
-  </si>
-  <si>
-    <t>Rs. 2.20 Lakh</t>
-  </si>
-  <si>
-    <t>Expected Launch : Jul 2026</t>
-  </si>
-  <si>
-    <t>KTM 350 Duke</t>
-  </si>
-  <si>
-    <t>Rs. 2.60 Lakh</t>
-  </si>
-  <si>
-    <t>Ola Cruiser</t>
-  </si>
-  <si>
-    <t>Rs. 2.70 Lakh</t>
-  </si>
-  <si>
-    <t>Expected Launch : Aug 2026</t>
-  </si>
-  <si>
-    <t>Royal Enfield 250</t>
-  </si>
-  <si>
-    <t>Rs. 1.30 Lakh</t>
-  </si>
-  <si>
-    <t>Expected Launch : Sep 2026</t>
-  </si>
-  <si>
-    <t>Royal Enfield Interceptor 750</t>
-  </si>
-  <si>
-    <t>Rs. 3.80 Lakh</t>
-  </si>
-  <si>
-    <t>Expected Launch : Nov 2026</t>
-  </si>
-  <si>
-    <t>KTM Duke 490</t>
-  </si>
-  <si>
-    <t>Rs. 4.00 Lakh</t>
   </si>
 </sst>
 </file>
@@ -728,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08465B5-2025-4D19-9577-739F89D91275}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A2:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,310 +577,68 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFC1F47-849A-45B2-980B-195303A863AC}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
@@ -1087,42 +668,42 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="29">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="29">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>
@@ -576,67 +576,31 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>7</v>
-      </c>
       <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>13</v>
-      </c>
       <c r="C4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>15</v>
-      </c>
       <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>17</v>
-      </c>
       <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>19</v>
-      </c>
       <c r="C7" t="s" s="0">
         <v>20</v>
       </c>

--- a/TestData/EmailData.xlsx
+++ b/TestData/EmailData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="29">
   <si>
     <t>1@##@gmailcom.com</t>
   </si>
